--- a/templates/QARSF/POLOADER.xlsx
+++ b/templates/QARSF/POLOADER.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dellDevonforce\Provar\ErpFinalProject\rsqasampleproj\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Namrata\git\rsqasampleproj\templates\QARSF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1171EB90-40BA-4673-B4ED-A778FEA5EA40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94E28889-4520-40B1-8DEE-96FC4C578C9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{B6C21A89-21B4-4624-A955-66D166717697}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="2" xr2:uid="{B6C21A89-21B4-4624-A955-66D166717697}"/>
   </bookViews>
   <sheets>
     <sheet name="AddBoth" sheetId="15" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="54">
   <si>
     <t>Vendor</t>
   </si>
@@ -114,12 +114,6 @@
     <t>India</t>
   </si>
   <si>
-    <t>TEST1</t>
-  </si>
-  <si>
-    <t>Distributor</t>
-  </si>
-  <si>
     <t>Blue Widgets</t>
   </si>
   <si>
@@ -186,9 +180,6 @@
     <t>a351K000001fwBg</t>
   </si>
   <si>
-    <t>a351K000000eQyI</t>
-  </si>
-  <si>
     <t>Icitem</t>
   </si>
   <si>
@@ -199,19 +190,40 @@
   </si>
   <si>
     <t>a3Z1K0000008Bhe</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>TEST2</t>
+  </si>
+  <si>
+    <t>a351K000000eR6y</t>
+  </si>
+  <si>
+    <t>a351K000000eQyN</t>
+  </si>
+  <si>
+    <t>a351K000001fwBb</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -234,8 +246,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -553,7 +566,7 @@
   <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="Q2" sqref="Q2:S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,13 +580,13 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E1" t="s">
         <v>6</v>
@@ -615,7 +628,7 @@
         <v>15</v>
       </c>
       <c r="R1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="S1" t="s">
         <v>16</v>
@@ -632,16 +645,16 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
         <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H2" t="s">
         <v>19</v>
@@ -659,7 +672,7 @@
         <v>22</v>
       </c>
       <c r="M2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N2">
         <v>4</v>
@@ -668,16 +681,16 @@
         <v>200.55</v>
       </c>
       <c r="P2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q2" t="s">
+        <v>49</v>
+      </c>
+      <c r="R2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S2" t="s">
         <v>23</v>
-      </c>
-      <c r="R2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -691,16 +704,16 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H3" t="s">
         <v>19</v>
@@ -718,7 +731,7 @@
         <v>22</v>
       </c>
       <c r="M3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N3">
         <v>4</v>
@@ -727,16 +740,16 @@
         <v>200.55</v>
       </c>
       <c r="P3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R3" t="s">
+        <v>50</v>
+      </c>
+      <c r="S3" t="s">
         <v>23</v>
-      </c>
-      <c r="R3" t="s">
-        <v>24</v>
-      </c>
-      <c r="S3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -750,16 +763,16 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
         <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H4" t="s">
         <v>19</v>
@@ -777,7 +790,7 @@
         <v>22</v>
       </c>
       <c r="M4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N4">
         <v>4</v>
@@ -786,16 +799,16 @@
         <v>200.55</v>
       </c>
       <c r="P4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q4" t="s">
+        <v>49</v>
+      </c>
+      <c r="R4" t="s">
+        <v>50</v>
+      </c>
+      <c r="S4" t="s">
         <v>23</v>
-      </c>
-      <c r="R4" t="s">
-        <v>24</v>
-      </c>
-      <c r="S4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -809,16 +822,16 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
         <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H5" t="s">
         <v>19</v>
@@ -836,7 +849,7 @@
         <v>22</v>
       </c>
       <c r="M5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N5">
         <v>4</v>
@@ -845,16 +858,16 @@
         <v>200.55</v>
       </c>
       <c r="P5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R5" t="s">
+        <v>50</v>
+      </c>
+      <c r="S5" t="s">
         <v>23</v>
-      </c>
-      <c r="R5" t="s">
-        <v>24</v>
-      </c>
-      <c r="S5" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -864,23 +877,23 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAC89EBC-4F44-4337-884E-CD4887F2A248}">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
         <v>27</v>
-      </c>
-      <c r="C1" t="s">
-        <v>29</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
@@ -895,51 +908,45 @@
         <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="O1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="P1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q1" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="R1" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
@@ -954,54 +961,48 @@
         <v>18</v>
       </c>
       <c r="G2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2">
+        <v>411002</v>
+      </c>
+      <c r="L2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2">
+        <v>5</v>
+      </c>
+      <c r="N2">
+        <v>1500</v>
+      </c>
+      <c r="O2" t="s">
         <v>30</v>
       </c>
-      <c r="H2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2">
-        <v>411002</v>
-      </c>
-      <c r="M2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O2">
-        <v>5</v>
-      </c>
-      <c r="P2">
-        <v>1500</v>
+      <c r="P2" t="s">
+        <v>49</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="R2" t="s">
         <v>23</v>
       </c>
-      <c r="S2" t="s">
-        <v>24</v>
-      </c>
-      <c r="T2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -1016,170 +1017,40 @@
         <v>18</v>
       </c>
       <c r="G3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3">
+        <v>411002</v>
+      </c>
+      <c r="L3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3">
+        <v>10</v>
+      </c>
+      <c r="N3">
+        <v>2460</v>
+      </c>
+      <c r="O3" t="s">
         <v>30</v>
       </c>
-      <c r="H3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3">
-        <v>411002</v>
-      </c>
-      <c r="M3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N3" t="s">
-        <v>31</v>
-      </c>
-      <c r="O3">
-        <v>10</v>
-      </c>
-      <c r="P3">
-        <v>2460</v>
+      <c r="P3" t="s">
+        <v>49</v>
       </c>
       <c r="Q3" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="R3" t="s">
         <v>23</v>
-      </c>
-      <c r="S3" t="s">
-        <v>24</v>
-      </c>
-      <c r="T3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4">
-        <v>411002</v>
-      </c>
-      <c r="M4" t="s">
-        <v>22</v>
-      </c>
-      <c r="N4" t="s">
-        <v>31</v>
-      </c>
-      <c r="O4">
-        <v>5</v>
-      </c>
-      <c r="P4">
-        <v>1500</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>32</v>
-      </c>
-      <c r="R4" t="s">
-        <v>23</v>
-      </c>
-      <c r="S4" t="s">
-        <v>24</v>
-      </c>
-      <c r="T4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5">
-        <v>411002</v>
-      </c>
-      <c r="M5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N5" t="s">
-        <v>31</v>
-      </c>
-      <c r="O5">
-        <v>10</v>
-      </c>
-      <c r="P5">
-        <v>2460</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>32</v>
-      </c>
-      <c r="R5" t="s">
-        <v>23</v>
-      </c>
-      <c r="S5" t="s">
-        <v>24</v>
-      </c>
-      <c r="T5" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1192,12 +1063,13 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -1205,10 +1077,10 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D1" t="s">
         <v>6</v>
@@ -1240,19 +1112,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -1261,7 +1133,7 @@
         <v>200.55</v>
       </c>
       <c r="J2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1272,19 +1144,19 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H3">
         <v>4</v>
@@ -1293,7 +1165,7 @@
         <v>200.55</v>
       </c>
       <c r="J3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1303,58 +1175,68 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA76DEB8-C288-4FFF-933C-5D83C119E0BF}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
         <v>28</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
         <v>18</v>
       </c>
-      <c r="C2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="D3" t="s">
         <v>28</v>
       </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" t="s">
-        <v>51</v>
+      <c r="E3" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1366,8 +1248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CED5C95-0955-431B-94C2-D9DAA0C46B5F}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1386,36 +1268,36 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E2">
         <v>10</v>
@@ -1424,10 +1306,10 @@
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1453,16 +1335,16 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
@@ -1470,16 +1352,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E2">
         <v>10</v>
@@ -1488,21 +1370,21 @@
         <v>15.897</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E3">
         <v>10</v>
@@ -1511,7 +1393,7 @@
         <v>15.897</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1521,10 +1403,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{683E8783-6B26-40B7-87D9-A6B8B4FD7B23}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1540,16 +1422,16 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
@@ -1557,52 +1439,122 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>47</v>
+        <v>26</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="E3">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F3">
+        <v>45.99</v>
+      </c>
+      <c r="G3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>340</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>200</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
         <v>100</v>
       </c>
-      <c r="G3" t="s">
-        <v>32</v>
+      <c r="G6" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1624,10 +1576,10 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D1" t="s">
         <v>6</v>
@@ -1654,30 +1606,30 @@
         <v>12</v>
       </c>
       <c r="L1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H2" t="s">
         <v>20</v>
@@ -1697,25 +1649,25 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B3" t="b">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H3" t="s">
         <v>20</v>
@@ -1735,25 +1687,25 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H4" t="s">
         <v>20</v>
@@ -1773,25 +1725,25 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B5" t="b">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H5" t="s">
         <v>20</v>
@@ -1816,10 +1768,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BAAF839-3C85-47A3-8C0F-A4F8E32EA17E}">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="A4" sqref="A4:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1834,10 +1786,10 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
         <v>27</v>
-      </c>
-      <c r="C1" t="s">
-        <v>29</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
@@ -1885,7 +1837,7 @@
         <v>15</v>
       </c>
       <c r="S1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="T1" t="s">
         <v>16</v>
@@ -1893,10 +1845,10 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
@@ -1911,16 +1863,16 @@
         <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K2" t="s">
         <v>21</v>
@@ -1932,7 +1884,7 @@
         <v>22</v>
       </c>
       <c r="N2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O2">
         <v>10</v>
@@ -1941,24 +1893,24 @@
         <v>10</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="R2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T2" t="s">
         <v>23</v>
-      </c>
-      <c r="S2" t="s">
-        <v>24</v>
-      </c>
-      <c r="T2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -1973,13 +1925,13 @@
         <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J3" t="s">
         <v>20</v>
@@ -1994,7 +1946,7 @@
         <v>22</v>
       </c>
       <c r="N3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O3">
         <v>6</v>
@@ -2003,140 +1955,16 @@
         <v>1000</v>
       </c>
       <c r="Q3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="R3" t="s">
+        <v>49</v>
+      </c>
+      <c r="S3" t="s">
+        <v>50</v>
+      </c>
+      <c r="T3" t="s">
         <v>23</v>
-      </c>
-      <c r="S3" t="s">
-        <v>24</v>
-      </c>
-      <c r="T3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" t="s">
-        <v>41</v>
-      </c>
-      <c r="K4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4">
-        <v>400056</v>
-      </c>
-      <c r="M4" t="s">
-        <v>22</v>
-      </c>
-      <c r="N4" t="s">
-        <v>31</v>
-      </c>
-      <c r="O4">
-        <v>10</v>
-      </c>
-      <c r="P4">
-        <v>10</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>32</v>
-      </c>
-      <c r="R4" t="s">
-        <v>23</v>
-      </c>
-      <c r="S4" t="s">
-        <v>24</v>
-      </c>
-      <c r="T4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5">
-        <v>400056</v>
-      </c>
-      <c r="M5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N5" t="s">
-        <v>31</v>
-      </c>
-      <c r="O5">
-        <v>6</v>
-      </c>
-      <c r="P5">
-        <v>1000</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>32</v>
-      </c>
-      <c r="R5" t="s">
-        <v>23</v>
-      </c>
-      <c r="S5" t="s">
-        <v>24</v>
-      </c>
-      <c r="T5" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -2146,23 +1974,23 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69D1DF1B-CADC-480B-9F9D-24CB1D04E075}">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
         <v>27</v>
-      </c>
-      <c r="C1" t="s">
-        <v>29</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
@@ -2174,33 +2002,30 @@
         <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="K1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="L1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
@@ -2212,36 +2037,33 @@
         <v>18</v>
       </c>
       <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+      <c r="H2">
+        <v>2000</v>
+      </c>
+      <c r="I2" t="s">
         <v>30</v>
       </c>
-      <c r="G2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2">
-        <v>6</v>
-      </c>
-      <c r="I2">
-        <v>2000</v>
-      </c>
       <c r="J2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
         <v>23</v>
       </c>
-      <c r="L2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -2253,110 +2075,25 @@
         <v>18</v>
       </c>
       <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>250</v>
+      </c>
+      <c r="I3" t="s">
         <v>30</v>
       </c>
-      <c r="G3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3">
-        <v>3</v>
-      </c>
-      <c r="I3">
-        <v>250</v>
-      </c>
       <c r="J3" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="K3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L3" t="s">
         <v>23</v>
-      </c>
-      <c r="L3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H4">
-        <v>6</v>
-      </c>
-      <c r="I4">
-        <v>2000</v>
-      </c>
-      <c r="J4" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" t="s">
-        <v>23</v>
-      </c>
-      <c r="L4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H5">
-        <v>3</v>
-      </c>
-      <c r="I5">
-        <v>250</v>
-      </c>
-      <c r="J5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L5" t="s">
-        <v>24</v>
-      </c>
-      <c r="M5" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
